--- a/VS_LOAN.Core.Web/App_Data/TemplateReport/ImportCourierTemplate.xlsx
+++ b/VS_LOAN.Core.Web/App_Data/TemplateReport/ImportCourierTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\outsource\VS_LOAN\VS_LOAN.Core.Web\App_Data\TemplateReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangPhat\OneDrive\Máy tính\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Tên khách hàng</t>
   </si>
@@ -32,19 +32,34 @@
     <t>Cmnd</t>
   </si>
   <si>
-    <t>ddd</t>
+    <t>0398877433</t>
   </si>
   <si>
-    <t>34332344</t>
+    <t>5638324232</t>
   </si>
   <si>
-    <t>432222sss</t>
+    <t>Note</t>
   </si>
   <si>
-    <t>5434343</t>
+    <t>Assignee</t>
   </si>
   <si>
-    <t>55</t>
+    <t>nodsdsd</t>
+  </si>
+  <si>
+    <t>Tỉnh thành</t>
+  </si>
+  <si>
+    <t>Quận/huyện</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A xxx</t>
+  </si>
+  <si>
+    <t>SaleCode</t>
+  </si>
+  <si>
+    <t>VBF0001</t>
   </si>
 </sst>
 </file>
@@ -377,6 +392,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,9 +551,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,92 +855,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.90625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="83" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="83"/>
-    <col min="4" max="16384" width="8.90625" style="25"/>
+    <col min="2" max="2" width="12.54296875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="29"/>
+    <col min="4" max="4" width="16.1796875" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="C2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="82">
-        <v>56644</v>
+      <c r="D2" s="25">
+        <v>4564.4565000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="82" t="s">
+      <c r="E2" s="25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
+      <c r="F2" s="25">
+        <v>1</v>
+      </c>
+      <c r="G2" s="25">
+        <v>14</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -946,85 +941,85 @@
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="20" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
     </row>
     <row r="21" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="5:30" ht="18" x14ac:dyDescent="0.35">
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
@@ -1050,62 +1045,62 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
     <row r="24" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
     <row r="25" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
@@ -1114,164 +1109,164 @@
       <c r="AD25" s="1"/>
     </row>
     <row r="26" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
     </row>
     <row r="27" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
     </row>
     <row r="28" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
     </row>
     <row r="29" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="77"/>
-      <c r="W29" s="77"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="50"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="53"/>
     </row>
     <row r="30" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="53"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="56"/>
     </row>
     <row r="31" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="56"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="59"/>
     </row>
     <row r="32" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="59"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -1279,8 +1274,8 @@
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="74"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="77"/>
       <c r="S32" s="16"/>
       <c r="T32" s="15"/>
       <c r="U32" s="16"/>
@@ -1304,8 +1299,8 @@
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="28"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="31"/>
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
       <c r="U33" s="17"/>
@@ -1329,8 +1324,8 @@
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="28"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="31"/>
       <c r="S34" s="21"/>
       <c r="T34" s="22"/>
       <c r="U34" s="21"/>
@@ -1357,8 +1352,8 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="30"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="33"/>
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
       <c r="U35" s="18"/>
@@ -1385,8 +1380,8 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="30"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="33"/>
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
       <c r="U36" s="18"/>
@@ -1413,8 +1408,8 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="30"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="33"/>
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
       <c r="U37" s="18"/>
@@ -1429,41 +1424,41 @@
       <c r="AD37" s="4"/>
     </row>
     <row r="38" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="44"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
     </row>
     <row r="39" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
@@ -1471,15 +1466,15 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="47"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
